--- a/rene budget.xlsx
+++ b/rene budget.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrene/Documents/GitHub/Budget/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrene/Documents/GitHub/Budget-Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DDBF73-0B7A-474D-A210-34C9E82B6A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8305FAF4-8806-8649-B2C2-622D159EB7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{2D515542-EA79-4582-B3C1-8D0CFBDFF63D}"/>
+    <workbookView xWindow="140" yWindow="900" windowWidth="29100" windowHeight="16580" xr2:uid="{2D515542-EA79-4582-B3C1-8D0CFBDFF63D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1287,7 +1287,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1341,8 +1341,7 @@
         <v>1500</v>
       </c>
       <c r="B3" s="33">
-        <f>1500+700</f>
-        <v>2200</v>
+        <v>2650</v>
       </c>
       <c r="C3" s="68"/>
       <c r="D3" s="81" t="s">
@@ -1386,7 +1385,7 @@
       </c>
       <c r="B5" s="14">
         <f>B3*B4</f>
-        <v>4400</v>
+        <v>5300</v>
       </c>
       <c r="C5" s="67"/>
       <c r="D5" s="32"/>
@@ -1661,7 +1660,7 @@
     <row r="14" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="83">
         <f>SUM(A5:C5)</f>
-        <v>7400</v>
+        <v>8300</v>
       </c>
       <c r="B14" s="84">
         <f>SUM(A11:L11)</f>
@@ -1669,14 +1668,14 @@
       </c>
       <c r="C14" s="85">
         <f>A14-B14</f>
-        <v>3120</v>
+        <v>4020</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="22">
         <f>C14</f>
-        <v>3120</v>
+        <v>4020</v>
       </c>
       <c r="H14" s="43" t="s">
         <v>44</v>
@@ -1690,11 +1689,11 @@
       </c>
       <c r="K14" s="45">
         <f>CEILING(((A5/A14) * A11 / $A$4) + 10, 1)</f>
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="L14" s="46">
         <f xml:space="preserve"> CEILING( (B5/A14) * (A11/B4) + 10, 1)</f>
-        <v>549</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1719,11 +1718,11 @@
       </c>
       <c r="K15" s="45">
         <f>CEILING((A5/A14) * SUM(B11:K11) / $A$4, 1)</f>
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="L15" s="46">
         <f xml:space="preserve"> CEILING( (B5/A14) * (SUM(B11:K11) / B4), 1)</f>
-        <v>438</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1732,7 +1731,7 @@
       </c>
       <c r="C16" s="17">
         <f>(A11/A14)</f>
-        <v>0.24459459459459459</v>
+        <v>0.21807228915662652</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>37</v>
@@ -1752,11 +1751,11 @@
       </c>
       <c r="K16" s="45">
         <f>CEILING((A5/A14)*L11/$A$4,1)</f>
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="L16" s="46">
         <f xml:space="preserve"> CEILING( (B5/A14) * (L11 / B4), 1)</f>
-        <v>298</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1765,7 +1764,7 @@
       </c>
       <c r="C17" s="17">
         <f>(SUM(B11:J11) / A14)</f>
-        <v>0.18108108108108109</v>
+        <v>0.16144578313253011</v>
       </c>
       <c r="E17" s="39" t="s">
         <v>38</v>
@@ -1778,11 +1777,11 @@
       </c>
       <c r="K17" s="50">
         <f xml:space="preserve"> CEILING( (A5/A14) * (SUM(F15:F17)/A4), 1)</f>
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="L17" s="51">
         <f xml:space="preserve"> CEILING( (B5/A14) * (SUM(F15:F17) / B4), 1)</f>
-        <v>268</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1792,7 +1791,7 @@
       <c r="B18" s="20"/>
       <c r="C18" s="18">
         <f>(L11 / A14)</f>
-        <v>0.13513513513513514</v>
+        <v>0.12048192771084337</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>50</v>
@@ -1805,11 +1804,11 @@
       </c>
       <c r="K18" s="45">
         <f xml:space="preserve"> CEILING( (A5/A14) * (F18 / $A$4), 1)</f>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L18" s="46">
         <f xml:space="preserve"> CEILING( (B5/A14) * (F18 / $B$4), 1)</f>
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1818,7 +1817,7 @@
       </c>
       <c r="C19" s="17">
         <f>SUM(C16:C18)</f>
-        <v>0.56081081081081074</v>
+        <v>0.5</v>
       </c>
       <c r="E19" s="41" t="s">
         <v>40</v>
@@ -1831,11 +1830,11 @@
       </c>
       <c r="K19" s="45">
         <f xml:space="preserve"> CEILING( (A5/A14) * (SUM(F19:F21)/$A$4), 1)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L19" s="46">
         <f xml:space="preserve"> CEILING( (B5/A14) * (SUM(F19:F21) / $B$4), 1 )</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1844,7 +1843,7 @@
       </c>
       <c r="C20" s="17">
         <f xml:space="preserve"> (SUM(F15:F17) + F22) / A14</f>
-        <v>0.17567567567567569</v>
+        <v>0.15662650602409639</v>
       </c>
       <c r="E20" s="41" t="s">
         <v>41</v>
@@ -1858,11 +1857,11 @@
       </c>
       <c r="K20" s="47">
         <f xml:space="preserve"> CEILING( (A5/A14) * (SUM(F22:F23) / $A$4), 1)</f>
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L20" s="48">
         <f>CEILING((((B5 + C5)/A14) * SUM(F22:F23) / $B$4), 1)</f>
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1877,11 +1876,11 @@
       </c>
       <c r="K21" s="62">
         <f xml:space="preserve"> CEILING((A5 / A14) * (F24 / $A$4), 1) - 10</f>
-        <v>307</v>
+        <v>435</v>
       </c>
       <c r="L21" s="48">
         <f xml:space="preserve"> CEILING( (B5/A14) * (F24/$B$4), 1) - 10</f>
-        <v>454</v>
+        <v>776</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1934,7 +1933,7 @@
       </c>
       <c r="F24" s="23">
         <f>F14 - SUM(F15:F23)</f>
-        <v>1560</v>
+        <v>2460</v>
       </c>
       <c r="J24" s="59"/>
       <c r="K24" s="66"/>

--- a/rene budget.xlsx
+++ b/rene budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrene/Documents/GitHub/Budget-Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8305FAF4-8806-8649-B2C2-622D159EB7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD0C8AB-3606-5C4B-838F-54ACC5DB8CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="900" windowWidth="29100" windowHeight="16580" xr2:uid="{2D515542-EA79-4582-B3C1-8D0CFBDFF63D}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" xr2:uid="{2D515542-EA79-4582-B3C1-8D0CFBDFF63D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1287,7 +1287,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1341,7 +1341,7 @@
         <v>1500</v>
       </c>
       <c r="B3" s="33">
-        <v>2650</v>
+        <v>1500</v>
       </c>
       <c r="C3" s="68"/>
       <c r="D3" s="81" t="s">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="B5" s="14">
         <f>B3*B4</f>
-        <v>5300</v>
+        <v>3000</v>
       </c>
       <c r="C5" s="67"/>
       <c r="D5" s="32"/>
@@ -1660,7 +1660,7 @@
     <row r="14" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="83">
         <f>SUM(A5:C5)</f>
-        <v>8300</v>
+        <v>6000</v>
       </c>
       <c r="B14" s="84">
         <f>SUM(A11:L11)</f>
@@ -1668,14 +1668,14 @@
       </c>
       <c r="C14" s="85">
         <f>A14-B14</f>
-        <v>4020</v>
+        <v>1720</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="22">
         <f>C14</f>
-        <v>4020</v>
+        <v>1720</v>
       </c>
       <c r="H14" s="43" t="s">
         <v>44</v>
@@ -1689,11 +1689,11 @@
       </c>
       <c r="K14" s="45">
         <f>CEILING(((A5/A14) * A11 / $A$4) + 10, 1)</f>
-        <v>338</v>
+        <v>463</v>
       </c>
       <c r="L14" s="46">
         <f xml:space="preserve"> CEILING( (B5/A14) * (A11/B4) + 10, 1)</f>
-        <v>588</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1704,7 +1704,7 @@
         <v>36</v>
       </c>
       <c r="F15" s="34">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H15" s="44" t="s">
         <v>47</v>
@@ -1718,11 +1718,11 @@
       </c>
       <c r="K15" s="45">
         <f>CEILING((A5/A14) * SUM(B11:K11) / $A$4, 1)</f>
-        <v>266</v>
+        <v>368</v>
       </c>
       <c r="L15" s="46">
         <f xml:space="preserve"> CEILING( (B5/A14) * (SUM(B11:K11) / B4), 1)</f>
-        <v>470</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1731,13 +1731,13 @@
       </c>
       <c r="C16" s="17">
         <f>(A11/A14)</f>
-        <v>0.21807228915662652</v>
+        <v>0.30166666666666669</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="34">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H16" s="53" t="s">
         <v>45</v>
@@ -1751,11 +1751,11 @@
       </c>
       <c r="K16" s="45">
         <f>CEILING((A5/A14)*L11/$A$4,1)</f>
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="L16" s="46">
         <f xml:space="preserve"> CEILING( (B5/A14) * (L11 / B4), 1)</f>
-        <v>320</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1764,24 +1764,24 @@
       </c>
       <c r="C17" s="17">
         <f>(SUM(B11:J11) / A14)</f>
-        <v>0.16144578313253011</v>
+        <v>0.22333333333333333</v>
       </c>
       <c r="E17" s="39" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="35">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="49" t="s">
         <v>29</v>
       </c>
       <c r="K17" s="50">
         <f xml:space="preserve"> CEILING( (A5/A14) * (SUM(F15:F17)/A4), 1)</f>
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="L17" s="51">
         <f xml:space="preserve"> CEILING( (B5/A14) * (SUM(F15:F17) / B4), 1)</f>
-        <v>288</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1791,24 +1791,24 @@
       <c r="B18" s="20"/>
       <c r="C18" s="18">
         <f>(L11 / A14)</f>
-        <v>0.12048192771084337</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="34">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="J18" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K18" s="45">
         <f xml:space="preserve"> CEILING( (A5/A14) * (F18 / $A$4), 1)</f>
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="L18" s="46">
         <f xml:space="preserve"> CEILING( (B5/A14) * (F18 / $B$4), 1)</f>
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="C19" s="17">
         <f>SUM(C16:C18)</f>
-        <v>0.5</v>
+        <v>0.69166666666666665</v>
       </c>
       <c r="E19" s="41" t="s">
         <v>40</v>
@@ -1830,11 +1830,11 @@
       </c>
       <c r="K19" s="45">
         <f xml:space="preserve"> CEILING( (A5/A14) * (SUM(F19:F21)/$A$4), 1)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L19" s="46">
         <f xml:space="preserve"> CEILING( (B5/A14) * (SUM(F19:F21) / $B$4), 1 )</f>
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1843,13 +1843,13 @@
       </c>
       <c r="C20" s="17">
         <f xml:space="preserve"> (SUM(F15:F17) + F22) / A14</f>
-        <v>0.15662650602409639</v>
+        <v>5.8333333333333334E-2</v>
       </c>
       <c r="E20" s="41" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="34">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H20" s="17"/>
       <c r="J20" s="31" t="s">
@@ -1857,11 +1857,11 @@
       </c>
       <c r="K20" s="47">
         <f xml:space="preserve"> CEILING( (A5/A14) * (SUM(F22:F23) / $A$4), 1)</f>
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="L20" s="48">
         <f>CEILING((((B5 + C5)/A14) * SUM(F22:F23) / $B$4), 1)</f>
-        <v>128</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1876,11 +1876,11 @@
       </c>
       <c r="K21" s="62">
         <f xml:space="preserve"> CEILING((A5 / A14) * (F24 / $A$4), 1) - 10</f>
-        <v>435</v>
+        <v>308</v>
       </c>
       <c r="L21" s="48">
         <f xml:space="preserve"> CEILING( (B5/A14) * (F24/$B$4), 1) - 10</f>
-        <v>776</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1889,13 +1889,13 @@
       </c>
       <c r="C22" s="1" t="str">
         <f>(ROUND(I15/(12 * F22), 1)) &amp; " years"</f>
-        <v>0.5 years</v>
+        <v>4.2 years</v>
       </c>
       <c r="E22" s="43" t="s">
         <v>54</v>
       </c>
       <c r="F22" s="34">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="J22" s="56"/>
       <c r="K22" s="65"/>
@@ -1908,7 +1908,7 @@
       <c r="B23" s="20"/>
       <c r="C23" s="20" t="str">
         <f>(ROUND(I14/(12 * F22), 1)) &amp; " years"</f>
-        <v>11.9 years</v>
+        <v>95.5 years</v>
       </c>
       <c r="E23" s="44" t="s">
         <v>39</v>
@@ -1926,14 +1926,14 @@
       </c>
       <c r="C24" s="1" t="str">
         <f>(FLOOR(I16/(12 * F22), 1)) &amp; " years"</f>
-        <v>12 years</v>
+        <v>99 years</v>
       </c>
       <c r="E24" s="64" t="s">
         <v>58</v>
       </c>
       <c r="F24" s="23">
         <f>F14 - SUM(F15:F23)</f>
-        <v>2460</v>
+        <v>1270</v>
       </c>
       <c r="J24" s="59"/>
       <c r="K24" s="66"/>

--- a/rene budget.xlsx
+++ b/rene budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrene/Documents/GitHub/Budget-Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD0C8AB-3606-5C4B-838F-54ACC5DB8CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63055B2-C680-DE44-9814-D92A1F0B3311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" xr2:uid="{2D515542-EA79-4582-B3C1-8D0CFBDFF63D}"/>
   </bookViews>
@@ -1287,7 +1287,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1511,7 +1511,7 @@
         <v>300</v>
       </c>
       <c r="F9" s="33">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G9" s="33">
         <v>50</v>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
@@ -1664,18 +1664,18 @@
       </c>
       <c r="B14" s="84">
         <f>SUM(A11:L11)</f>
-        <v>4280</v>
+        <v>4290</v>
       </c>
       <c r="C14" s="85">
         <f>A14-B14</f>
-        <v>1720</v>
+        <v>1710</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="22">
         <f>C14</f>
-        <v>1720</v>
+        <v>1710</v>
       </c>
       <c r="H14" s="43" t="s">
         <v>44</v>
@@ -1718,11 +1718,11 @@
       </c>
       <c r="K15" s="45">
         <f>CEILING((A5/A14) * SUM(B11:K11) / $A$4, 1)</f>
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L15" s="46">
         <f xml:space="preserve"> CEILING( (B5/A14) * (SUM(B11:K11) / B4), 1)</f>
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="C17" s="17">
         <f>(SUM(B11:J11) / A14)</f>
-        <v>0.22333333333333333</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="E17" s="39" t="s">
         <v>38</v>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="C19" s="17">
         <f>SUM(C16:C18)</f>
-        <v>0.69166666666666665</v>
+        <v>0.69333333333333336</v>
       </c>
       <c r="E19" s="41" t="s">
         <v>40</v>
@@ -1876,11 +1876,11 @@
       </c>
       <c r="K21" s="62">
         <f xml:space="preserve"> CEILING((A5 / A14) * (F24 / $A$4), 1) - 10</f>
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L21" s="48">
         <f xml:space="preserve"> CEILING( (B5/A14) * (F24/$B$4), 1) - 10</f>
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="F24" s="23">
         <f>F14 - SUM(F15:F23)</f>
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="J24" s="59"/>
       <c r="K24" s="66"/>

--- a/rene budget.xlsx
+++ b/rene budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrene/Documents/GitHub/Budget-Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63055B2-C680-DE44-9814-D92A1F0B3311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18338E2-EBC0-8F48-AADF-A6A544E3D9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" xr2:uid="{2D515542-EA79-4582-B3C1-8D0CFBDFF63D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
   <si>
     <t>origin</t>
   </si>
@@ -158,9 +158,6 @@
     <t>raiz investment fund</t>
   </si>
   <si>
-    <t>super contributions</t>
-  </si>
-  <si>
     <t>spotify</t>
   </si>
   <si>
@@ -246,6 +243,12 @@
   </si>
   <si>
     <t>per-month</t>
+  </si>
+  <si>
+    <t>7-eleven</t>
+  </si>
+  <si>
+    <t>maintenance</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1290,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1321,7 +1324,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="32"/>
@@ -1338,14 +1341,14 @@
     </row>
     <row r="3" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33">
-        <v>1500</v>
+        <v>1507</v>
       </c>
       <c r="B3" s="33">
-        <v>1500</v>
+        <v>1591</v>
       </c>
       <c r="C3" s="68"/>
       <c r="D3" s="81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="81"/>
       <c r="F3" s="81"/>
@@ -1381,11 +1384,11 @@
     <row r="5" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <f>A3*A4</f>
-        <v>3000</v>
+        <v>3014</v>
       </c>
       <c r="B5" s="14">
         <f>B3*B4</f>
-        <v>3000</v>
+        <v>3182</v>
       </c>
       <c r="C5" s="67"/>
       <c r="D5" s="32"/>
@@ -1437,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>17</v>
@@ -1446,7 +1449,7 @@
         <v>18</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>20</v>
@@ -1477,7 +1480,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>16</v>
@@ -1486,7 +1489,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>21</v>
@@ -1502,7 +1505,7 @@
         <v>450</v>
       </c>
       <c r="C9" s="33">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="D9" s="33">
         <v>300</v>
@@ -1517,7 +1520,7 @@
         <v>50</v>
       </c>
       <c r="H9" s="33">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="I9" s="33">
         <v>20</v>
@@ -1526,7 +1529,7 @@
         <v>400</v>
       </c>
       <c r="K9" s="33">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="L9" s="33">
         <v>250</v>
@@ -1561,7 +1564,8 @@
         <v>1</v>
       </c>
       <c r="H10" s="9">
-        <v>2</v>
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I10" s="9">
         <v>1</v>
@@ -1570,8 +1574,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="9">
-        <f>1/12</f>
-        <v>8.3333333333333329E-2</v>
+        <v>2</v>
       </c>
       <c r="L10" s="9">
         <v>4</v>
@@ -1590,7 +1593,7 @@
       </c>
       <c r="C11" s="12">
         <f t="shared" ref="C11:J11" si="0">CEILING(C9*C10, 10)</f>
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
@@ -1610,7 +1613,7 @@
       </c>
       <c r="H11" s="12">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="I11" s="12">
         <f t="shared" si="0"/>
@@ -1622,7 +1625,7 @@
       </c>
       <c r="K11" s="12">
         <f>CEILING(K9*K10, 10)</f>
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="L11" s="13">
         <f>CEILING(L9*L10, 10)</f>
@@ -1639,14 +1642,14 @@
         <v>28</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="86" t="s">
         <v>52</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>53</v>
       </c>
       <c r="F13" s="86"/>
       <c r="H13" s="87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="87"/>
       <c r="J13" s="2"/>
@@ -1660,25 +1663,25 @@
     <row r="14" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="83">
         <f>SUM(A5:C5)</f>
-        <v>6000</v>
+        <v>6196</v>
       </c>
       <c r="B14" s="84">
         <f>SUM(A11:L11)</f>
-        <v>4290</v>
+        <v>4310</v>
       </c>
       <c r="C14" s="85">
         <f>A14-B14</f>
-        <v>1710</v>
+        <v>1886</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="22">
         <f>C14</f>
-        <v>1710</v>
+        <v>1886</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="54">
         <f xml:space="preserve"> 33769.9 + 18169.87 + 5354.43</f>
@@ -1689,11 +1692,11 @@
       </c>
       <c r="K14" s="45">
         <f>CEILING(((A5/A14) * A11 / $A$4) + 10, 1)</f>
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="L14" s="46">
         <f xml:space="preserve"> CEILING( (B5/A14) * (A11/B4) + 10, 1)</f>
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1707,7 +1710,7 @@
         <v>300</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="55">
         <f xml:space="preserve"> 2500</f>
@@ -1717,12 +1720,12 @@
         <v>25</v>
       </c>
       <c r="K15" s="45">
-        <f>CEILING((A5/A14) * SUM(B11:K11) / $A$4, 1)</f>
-        <v>370</v>
+        <f>CEILING((A5/A14) * SUM(B11:J11) / $A$4, 1)</f>
+        <v>322</v>
       </c>
       <c r="L15" s="46">
         <f xml:space="preserve"> CEILING( (B5/A14) * (SUM(B11:K11) / B4), 1)</f>
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1731,7 +1734,7 @@
       </c>
       <c r="C16" s="17">
         <f>(A11/A14)</f>
-        <v>0.30166666666666669</v>
+        <v>0.29212395093608778</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>37</v>
@@ -1740,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16" s="52">
         <f>SUM(I14:I15)</f>
@@ -1750,12 +1753,12 @@
         <v>26</v>
       </c>
       <c r="K16" s="45">
-        <f>CEILING((A5/A14)*L11/$A$4,1)</f>
-        <v>250</v>
+        <f>CEILING((A5/A14)*SUM(K11:L11)/$A$4,1)</f>
+        <v>288</v>
       </c>
       <c r="L16" s="46">
-        <f xml:space="preserve"> CEILING( (B5/A14) * (L11 / B4), 1)</f>
-        <v>250</v>
+        <f xml:space="preserve"> CEILING( (B5/A14) * (SUM(K11:L11) / B4), 1)</f>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1764,7 +1767,7 @@
       </c>
       <c r="C17" s="17">
         <f>(SUM(B11:J11) / A14)</f>
-        <v>0.22500000000000001</v>
+        <v>0.2130406714009038</v>
       </c>
       <c r="E17" s="39" t="s">
         <v>38</v>
@@ -1777,11 +1780,11 @@
       </c>
       <c r="K17" s="50">
         <f xml:space="preserve"> CEILING( (A5/A14) * (SUM(F15:F17)/A4), 1)</f>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L17" s="51">
         <f xml:space="preserve"> CEILING( (B5/A14) * (SUM(F15:F17) / B4), 1)</f>
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1791,16 +1794,16 @@
       <c r="B18" s="20"/>
       <c r="C18" s="18">
         <f>(L11 / A14)</f>
-        <v>0.16666666666666666</v>
+        <v>0.16139444803098774</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="34">
         <v>50</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="45">
         <f xml:space="preserve"> CEILING( (A5/A14) * (F18 / $A$4), 1)</f>
@@ -1817,16 +1820,16 @@
       </c>
       <c r="C19" s="17">
         <f>SUM(C16:C18)</f>
-        <v>0.69333333333333336</v>
+        <v>0.66655907036797934</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="36">
         <v>20</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K19" s="45">
         <f xml:space="preserve"> CEILING( (A5/A14) * (SUM(F19:F21)/$A$4), 1)</f>
@@ -1843,56 +1846,56 @@
       </c>
       <c r="C20" s="17">
         <f xml:space="preserve"> (SUM(F15:F17) + F22) / A14</f>
-        <v>5.8333333333333334E-2</v>
+        <v>5.6488056810845705E-2</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="34">
         <v>10</v>
       </c>
       <c r="H20" s="17"/>
       <c r="J20" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20" s="47">
         <f xml:space="preserve"> CEILING( (A5/A14) * (SUM(F22:F23) / $A$4), 1)</f>
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="L20" s="48">
         <f>CEILING((((B5 + C5)/A14) * SUM(F22:F23) / $B$4), 1)</f>
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E21" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="35">
         <v>20</v>
       </c>
       <c r="J21" s="63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="62">
         <f xml:space="preserve"> CEILING((A5 / A14) * (F24 / $A$4), 1) - 10</f>
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="L21" s="48">
         <f xml:space="preserve"> CEILING( (B5/A14) * (F24/$B$4), 1) - 10</f>
-        <v>305</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="str">
         <f>(ROUND(I15/(12 * F22), 1)) &amp; " years"</f>
         <v>4.2 years</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="34">
         <v>50</v>
@@ -1903,7 +1906,7 @@
     </row>
     <row r="23" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20" t="str">
@@ -1911,10 +1914,10 @@
         <v>95.5 years</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="F23" s="35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="59"/>
       <c r="K23" s="57"/>
@@ -1922,18 +1925,18 @@
     </row>
     <row r="24" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="str">
         <f>(FLOOR(I16/(12 * F22), 1)) &amp; " years"</f>
         <v>99 years</v>
       </c>
       <c r="E24" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="23">
         <f>F14 - SUM(F15:F23)</f>
-        <v>1260</v>
+        <v>1336</v>
       </c>
       <c r="J24" s="59"/>
       <c r="K24" s="66"/>
@@ -2070,7 +2073,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>41</v>
@@ -2081,7 +2084,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -2092,7 +2095,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>82</v>
@@ -2103,7 +2106,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>307</v>
@@ -2129,16 +2132,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2188,19 +2191,19 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="C1" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="D1" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="78" t="s">
         <v>67</v>
-      </c>
-      <c r="D1" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="78" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -2396,10 +2399,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="78" t="s">
         <v>56</v>
-      </c>
-      <c r="B12" s="78" t="s">
-        <v>57</v>
       </c>
       <c r="C12" s="78">
         <v>1500</v>

--- a/rene budget.xlsx
+++ b/rene budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrene/Documents/GitHub/Budget-Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18338E2-EBC0-8F48-AADF-A6A544E3D9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60818EA0-6852-CC46-A85B-A7AA4853E214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" xr2:uid="{2D515542-EA79-4582-B3C1-8D0CFBDFF63D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
   <si>
     <t>origin</t>
   </si>
@@ -158,15 +158,6 @@
     <t>raiz investment fund</t>
   </si>
   <si>
-    <t>spotify</t>
-  </si>
-  <si>
-    <t>streaming</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
     <t>debts</t>
   </si>
   <si>
@@ -218,9 +209,6 @@
     <t>disposable</t>
   </si>
   <si>
-    <t>starbucks + ccq</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -249,6 +237,21 @@
   </si>
   <si>
     <t>maintenance</t>
+  </si>
+  <si>
+    <t>cleaner</t>
+  </si>
+  <si>
+    <t>carolina</t>
+  </si>
+  <si>
+    <t>subscriptions</t>
+  </si>
+  <si>
+    <t>adobe</t>
+  </si>
+  <si>
+    <t>ccq</t>
   </si>
 </sst>
 </file>
@@ -260,7 +263,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,13 +456,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -491,6 +487,21 @@
       <sz val="28"/>
       <name val="Aptos Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -569,7 +580,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -694,9 +705,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
@@ -737,100 +745,112 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -991,9 +1011,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1031,7 +1051,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1137,7 +1157,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1279,7 +1299,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1287,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C201B19D-7A57-44E9-A427-B66FE86F3408}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1298,14 +1318,14 @@
     <col min="1" max="16384" width="18.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="67"/>
+      <c r="C1" s="64"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
@@ -1316,15 +1336,16 @@
       <c r="J1" s="80"/>
       <c r="K1" s="80"/>
       <c r="L1" s="80"/>
-      <c r="N1" s="3"/>
+      <c r="M1" s="80"/>
       <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="32"/>
@@ -1336,19 +1357,20 @@
       <c r="J2" s="80"/>
       <c r="K2" s="80"/>
       <c r="L2" s="80"/>
-      <c r="N2" s="3"/>
+      <c r="M2" s="80"/>
       <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33">
-        <v>1507</v>
+        <v>1551</v>
       </c>
       <c r="B3" s="33">
-        <v>1591</v>
-      </c>
-      <c r="C3" s="68"/>
+        <v>1632</v>
+      </c>
+      <c r="C3" s="65"/>
       <c r="D3" s="81" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E3" s="81"/>
       <c r="F3" s="81"/>
@@ -1358,10 +1380,11 @@
       <c r="J3" s="80"/>
       <c r="K3" s="80"/>
       <c r="L3" s="80"/>
-      <c r="N3" s="3"/>
+      <c r="M3" s="80"/>
       <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -1378,19 +1401,20 @@
       <c r="J4" s="80"/>
       <c r="K4" s="80"/>
       <c r="L4" s="80"/>
-      <c r="N4" s="3"/>
+      <c r="M4" s="80"/>
       <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <f>A3*A4</f>
-        <v>3014</v>
+        <v>3102</v>
       </c>
       <c r="B5" s="14">
         <f>B3*B4</f>
-        <v>3182</v>
-      </c>
-      <c r="C5" s="67"/>
+        <v>3264</v>
+      </c>
+      <c r="C5" s="64"/>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
@@ -1400,10 +1424,11 @@
       <c r="J5" s="80"/>
       <c r="K5" s="80"/>
       <c r="L5" s="80"/>
-      <c r="N5" s="3"/>
+      <c r="M5" s="80"/>
       <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1416,8 +1441,9 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1440,24 +1466,27 @@
         <v>5</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1480,24 +1509,27 @@
         <v>14</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="L8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
         <v>1806</v>
       </c>
@@ -1526,18 +1558,21 @@
         <v>20</v>
       </c>
       <c r="J9" s="33">
+        <v>180</v>
+      </c>
+      <c r="K9" s="33">
         <v>400</v>
       </c>
-      <c r="K9" s="33">
+      <c r="L9" s="33">
         <v>90</v>
       </c>
-      <c r="L9" s="33">
+      <c r="M9" s="33">
         <v>250</v>
       </c>
-      <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -1574,15 +1609,18 @@
         <v>1</v>
       </c>
       <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9">
         <v>2</v>
       </c>
-      <c r="L10" s="9">
+      <c r="M10" s="9">
         <v>4</v>
       </c>
-      <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <f>CEILING(A9*A10, 10)</f>
         <v>1810</v>
@@ -1592,7 +1630,7 @@
         <v>150</v>
       </c>
       <c r="C11" s="12">
-        <f t="shared" ref="C11:J11" si="0">CEILING(C9*C10, 10)</f>
+        <f t="shared" ref="C11:K11" si="0">CEILING(C9*C10, 10)</f>
         <v>290</v>
       </c>
       <c r="D11" s="12">
@@ -1620,21 +1658,25 @@
         <v>20</v>
       </c>
       <c r="J11" s="12">
+        <f>CEILING(J9*J10, 10)</f>
+        <v>180</v>
+      </c>
+      <c r="K11" s="12">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="K11" s="12">
-        <f>CEILING(K9*K10, 10)</f>
+      <c r="L11" s="12">
+        <f>CEILING(L9*L10, 10)</f>
         <v>180</v>
       </c>
-      <c r="L11" s="13">
-        <f>CEILING(L9*L10, 10)</f>
+      <c r="M11" s="13">
+        <f>CEILING(M9*M10, 10)</f>
         <v>1000</v>
       </c>
-      <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="13" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="13" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>27</v>
       </c>
@@ -1642,64 +1684,66 @@
         <v>28</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E13" s="86" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F13" s="86"/>
       <c r="H13" s="87" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I13" s="87"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="24" t="s">
+      <c r="J13" s="77"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="M13" s="25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="83">
         <f>SUM(A5:C5)</f>
-        <v>6196</v>
+        <v>6366</v>
       </c>
       <c r="B14" s="84">
-        <f>SUM(A11:L11)</f>
-        <v>4310</v>
+        <f>SUM(A11:M11)</f>
+        <v>4490</v>
       </c>
       <c r="C14" s="85">
         <f>A14-B14</f>
-        <v>1886</v>
+        <v>1876</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F14" s="22">
         <f>C14</f>
-        <v>1886</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="54">
+        <v>1876</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="53">
         <f xml:space="preserve"> 33769.9 + 18169.87 + 5354.43</f>
         <v>57294.200000000004</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="78"/>
+      <c r="K14" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="45">
+      <c r="L14" s="44">
         <f>CEILING(((A5/A14) * A11 / $A$4) + 10, 1)</f>
         <v>451</v>
       </c>
-      <c r="L14" s="46">
+      <c r="M14" s="45">
         <f xml:space="preserve"> CEILING( (B5/A14) * (A11/B4) + 10, 1)</f>
         <v>475</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="83"/>
       <c r="B15" s="84"/>
       <c r="C15" s="85"/>
@@ -1709,32 +1753,33 @@
       <c r="F15" s="34">
         <v>300</v>
       </c>
-      <c r="H15" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="55">
+      <c r="H15" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="54">
         <f xml:space="preserve"> 2500</f>
         <v>2500</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="79"/>
+      <c r="K15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="45">
-        <f>CEILING((A5/A14) * SUM(B11:J11) / $A$4, 1)</f>
-        <v>322</v>
-      </c>
-      <c r="L15" s="46">
+      <c r="L15" s="44">
+        <f>CEILING((A5/A14) * SUM(B11:K11) / $A$4, 1)</f>
+        <v>366</v>
+      </c>
+      <c r="M15" s="45">
         <f xml:space="preserve"> CEILING( (B5/A14) * (SUM(B11:K11) / B4), 1)</f>
-        <v>386</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="17">
         <f>(A11/A14)</f>
-        <v>0.29212395093608778</v>
+        <v>0.28432296575557647</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>37</v>
@@ -1742,32 +1787,33 @@
       <c r="F16" s="34">
         <v>0</v>
       </c>
-      <c r="H16" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="52">
+      <c r="H16" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="51">
         <f>SUM(I14:I15)</f>
         <v>59794.200000000004</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="J16" s="51"/>
+      <c r="K16" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="45">
-        <f>CEILING((A5/A14)*SUM(K11:L11)/$A$4,1)</f>
+      <c r="L16" s="44">
+        <f>CEILING((A5/A14)*SUM(L11:M11)/$A$4,1)</f>
         <v>288</v>
       </c>
-      <c r="L16" s="46">
-        <f xml:space="preserve"> CEILING( (B5/A14) * (SUM(K11:L11) / B4), 1)</f>
+      <c r="M16" s="45">
+        <f xml:space="preserve"> CEILING( (B5/A14) * (SUM(L11:M11) / B4), 1)</f>
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="17">
-        <f>(SUM(B11:J11) / A14)</f>
-        <v>0.2130406714009038</v>
+        <f>(SUM(B11:K11) / A14)</f>
+        <v>0.23562676720075401</v>
       </c>
       <c r="E17" s="39" t="s">
         <v>38</v>
@@ -1775,221 +1821,232 @@
       <c r="F17" s="35">
         <v>0</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="K17" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="50">
+      <c r="L17" s="49">
         <f xml:space="preserve"> CEILING( (A5/A14) * (SUM(F15:F17)/A4), 1)</f>
-        <v>73</v>
-      </c>
-      <c r="L17" s="51">
+        <v>74</v>
+      </c>
+      <c r="M17" s="50">
         <f xml:space="preserve"> CEILING( (B5/A14) * (SUM(F15:F17) / B4), 1)</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="18">
-        <f>(L11 / A14)</f>
-        <v>0.16139444803098774</v>
+        <f>(M11 / A14)</f>
+        <v>0.15708451146716934</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F18" s="34">
         <v>50</v>
       </c>
-      <c r="J18" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="45">
+      <c r="K18" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="44">
         <f xml:space="preserve"> CEILING( (A5/A14) * (F18 / $A$4), 1)</f>
         <v>13</v>
       </c>
-      <c r="L18" s="46">
+      <c r="M18" s="45">
         <f xml:space="preserve"> CEILING( (B5/A14) * (F18 / $B$4), 1)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="17">
         <f>SUM(C16:C18)</f>
-        <v>0.66655907036797934</v>
+        <v>0.6770342444234998</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F19" s="36">
-        <v>20</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="45">
-        <f xml:space="preserve"> CEILING( (A5/A14) * (SUM(F19:F21)/$A$4), 1)</f>
+        <v>30</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="44">
+        <f xml:space="preserve"> CEILING( (A5/A14) * (SUM(F19:F20)/$A$4), 1)</f>
         <v>13</v>
       </c>
-      <c r="L19" s="46">
-        <f xml:space="preserve"> CEILING( (B5/A14) * (SUM(F19:F21) / $B$4), 1 )</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M19" s="45">
+        <f xml:space="preserve"> CEILING( (B5/A14) * (SUM(F19:F20) / $B$4), 1 )</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17">
         <f xml:space="preserve"> (SUM(F15:F17) + F22) / A14</f>
-        <v>5.6488056810845705E-2</v>
+        <v>5.4979579013509271E-2</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="F20" s="34">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H20" s="17"/>
-      <c r="J20" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" s="47">
+      <c r="K20" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="46">
         <f xml:space="preserve"> CEILING( (A5/A14) * (SUM(F22:F23) / $A$4), 1)</f>
         <v>37</v>
       </c>
-      <c r="L20" s="48">
-        <f>CEILING((((B5 + C5)/A14) * SUM(F22:F23) / $B$4), 1)</f>
+      <c r="M20" s="47">
+        <f>CEILING(((B5/A14) * SUM(F22:F23) / $B$4), 1)</f>
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="35">
-        <v>20</v>
-      </c>
-      <c r="J21" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" s="62">
-        <f xml:space="preserve"> CEILING((A5 / A14) * (F24 / $A$4), 1) - 10</f>
-        <v>315</v>
-      </c>
-      <c r="L21" s="48">
-        <f xml:space="preserve"> CEILING( (B5/A14) * (F24/$B$4), 1) - 10</f>
-        <v>334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="89">
+        <v>100</v>
+      </c>
+      <c r="K21" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="60">
+        <f xml:space="preserve"> CEILING( (A5/A14) * (F21 / $A$4), 1)</f>
+        <v>25</v>
+      </c>
+      <c r="M21" s="47">
+        <f>CEILING(((B5/A14) * F21 / $B$4), 1)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="str">
         <f>(ROUND(I15/(12 * F22), 1)) &amp; " years"</f>
         <v>4.2 years</v>
       </c>
-      <c r="E22" s="43" t="s">
-        <v>53</v>
+      <c r="E22" s="42" t="s">
+        <v>50</v>
       </c>
       <c r="F22" s="34">
         <v>50</v>
       </c>
-      <c r="J22" s="56"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="58"/>
-    </row>
-    <row r="23" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="60">
+        <f xml:space="preserve"> CEILING((A5 / A14) * (F24 / $A$4), 1) - 10</f>
+        <v>289</v>
+      </c>
+      <c r="M22" s="47">
+        <f xml:space="preserve"> CEILING( (B5/A14) * (F24/$B$4), 1) - 10</f>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20" t="str">
         <f>(ROUND(I14/(12 * F22), 1)) &amp; " years"</f>
         <v>95.5 years</v>
       </c>
-      <c r="E23" s="44" t="s">
-        <v>69</v>
+      <c r="E23" s="43" t="s">
+        <v>65</v>
       </c>
       <c r="F23" s="35">
         <v>100</v>
       </c>
-      <c r="J23" s="59"/>
       <c r="K23" s="57"/>
-      <c r="L23" s="58"/>
-    </row>
-    <row r="24" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L23" s="55"/>
+      <c r="M23" s="56"/>
+    </row>
+    <row r="24" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1" t="str">
         <f>(FLOOR(I16/(12 * F22), 1)) &amp; " years"</f>
         <v>99 years</v>
       </c>
-      <c r="E24" s="64" t="s">
-        <v>57</v>
+      <c r="E24" s="62" t="s">
+        <v>54</v>
       </c>
       <c r="F24" s="23">
         <f>F14 - SUM(F15:F23)</f>
-        <v>1336</v>
-      </c>
-      <c r="J24" s="59"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="61"/>
-    </row>
-    <row r="25" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1224</v>
+      </c>
+      <c r="K24" s="57"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="59"/>
+    </row>
+    <row r="25" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E25" s="21"/>
     </row>
-    <row r="26" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
+    <row r="26" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="82"/>
       <c r="F26" s="82"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="61"/>
-    </row>
-    <row r="27" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="69"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="59"/>
+    </row>
+    <row r="27" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="66"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="73"/>
-    </row>
-    <row r="28" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="69"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="74"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="70"/>
+    </row>
+    <row r="28" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="71"/>
       <c r="E28" s="82"/>
       <c r="F28" s="82"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="H1:L5"/>
+    <mergeCell ref="H1:M5"/>
     <mergeCell ref="D3:F4"/>
     <mergeCell ref="E26:F28"/>
     <mergeCell ref="A14:A15"/>
@@ -1998,7 +2055,7 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="H13:I13"/>
   </mergeCells>
-  <conditionalFormatting sqref="L27">
+  <conditionalFormatting sqref="M27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -2073,7 +2130,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>41</v>
@@ -2084,7 +2141,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -2095,7 +2152,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>82</v>
@@ -2106,7 +2163,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>307</v>
@@ -2132,16 +2189,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2190,264 +2247,264 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="78" t="s">
+      <c r="A1" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="78" t="s">
-        <v>67</v>
+      <c r="C1" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="78">
+      <c r="C2" s="75">
         <v>1806</v>
       </c>
-      <c r="D2" s="78">
+      <c r="D2" s="75">
         <v>1</v>
       </c>
-      <c r="E2" s="78">
+      <c r="E2" s="75">
         <f>CEILING(C2*D2, 10)</f>
         <v>1810</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="78">
+      <c r="C3" s="75">
         <v>450</v>
       </c>
-      <c r="D3" s="79">
+      <c r="D3" s="76">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E3" s="78">
+      <c r="E3" s="75">
         <f t="shared" ref="E3:E12" si="0">CEILING(C3*D3, 10)</f>
         <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="78">
+      <c r="C4" s="75">
         <v>800</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="76">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E4" s="78">
+      <c r="E4" s="75">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="78">
+      <c r="C5" s="75">
         <v>300</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="76">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E5" s="78">
+      <c r="E5" s="75">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I5" s="68"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="75">
         <v>300</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="76">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E6" s="78">
+      <c r="E6" s="75">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I6" s="68"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="75">
         <v>70</v>
       </c>
-      <c r="D7" s="78">
+      <c r="D7" s="75">
         <v>1</v>
       </c>
-      <c r="E7" s="78">
+      <c r="E7" s="75">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="I7" s="68"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="78">
+      <c r="C8" s="75">
         <v>50</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="75">
         <v>1</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="75">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I8" s="68"/>
+      <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="78">
+      <c r="C9" s="75">
         <v>90</v>
       </c>
-      <c r="D9" s="78">
+      <c r="D9" s="75">
         <v>2</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="75">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="I9" s="68"/>
+      <c r="I9" s="65"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="78">
+      <c r="C10" s="75">
         <v>20</v>
       </c>
-      <c r="D10" s="78">
+      <c r="D10" s="75">
         <v>1</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="75">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I10" s="68"/>
+      <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="78">
+      <c r="C11" s="75">
         <v>400</v>
       </c>
-      <c r="D11" s="78">
+      <c r="D11" s="75">
         <v>1</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="75">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="I11" s="68"/>
+      <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="78">
+      <c r="A12" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="75">
         <v>1500</v>
       </c>
-      <c r="D12" s="78">
+      <c r="D12" s="75">
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="75">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="I12" s="68"/>
+      <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="78"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
+      <c r="A13" s="75"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="78"/>
-      <c r="I14" s="68"/>
+      <c r="A14" s="75"/>
+      <c r="I14" s="65"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="78"/>
-      <c r="I15" s="68"/>
+      <c r="A15" s="75"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="78"/>
+      <c r="A16" s="75"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="78"/>
+      <c r="A17" s="75"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="78"/>
+      <c r="A18" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
